--- a/Code/Results/Cases/Case_1_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_102/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.18309611915091</v>
+        <v>10.39305831775856</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.045545216872406</v>
+        <v>2.79157380833403</v>
       </c>
       <c r="E2">
-        <v>9.162620296662894</v>
+        <v>10.8037143894589</v>
       </c>
       <c r="F2">
-        <v>24.28786908229856</v>
+        <v>20.27479986733831</v>
       </c>
       <c r="G2">
-        <v>2.002370383971619</v>
+        <v>3.570104529791232</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.71493728160647</v>
+        <v>24.25631413728395</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>37.62002442547983</v>
+        <v>23.74438286295263</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.48792607919853</v>
+        <v>17.45812196154642</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.17706119378607</v>
+        <v>9.919740286067597</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.962355653560404</v>
+        <v>2.796522906301453</v>
       </c>
       <c r="E3">
-        <v>8.522244024175119</v>
+        <v>10.87149116235124</v>
       </c>
       <c r="F3">
-        <v>22.51119226885081</v>
+        <v>19.94573952827516</v>
       </c>
       <c r="G3">
-        <v>2.01064932609762</v>
+        <v>3.573123286525179</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.75016207141401</v>
+        <v>23.46679190532137</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.14338515565054</v>
+        <v>22.55226389130305</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.09560345338297</v>
+        <v>17.29604510821176</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.52490352553761</v>
+        <v>9.616176361483015</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.909942172543066</v>
+        <v>2.799870054114073</v>
       </c>
       <c r="E4">
-        <v>8.389604652691686</v>
+        <v>10.92169931525633</v>
       </c>
       <c r="F4">
-        <v>21.49698589434069</v>
+        <v>19.75054696237834</v>
       </c>
       <c r="G4">
-        <v>2.015855690176571</v>
+        <v>3.575073040860725</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.49811225082743</v>
+        <v>22.97426093668741</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>33.53576008519244</v>
+        <v>21.78536397901359</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.39361184041414</v>
+        <v>17.20367083179469</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.25043339566225</v>
+        <v>9.489333585493803</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.888249948021321</v>
+        <v>2.801311881364192</v>
       </c>
       <c r="E5">
-        <v>8.341707559697166</v>
+        <v>10.94429861525945</v>
       </c>
       <c r="F5">
-        <v>21.08344308386524</v>
+        <v>19.67284609762919</v>
       </c>
       <c r="G5">
-        <v>2.018010056478818</v>
+        <v>3.575891866643749</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.97677494877525</v>
+        <v>22.77195476996678</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>32.85864469869747</v>
+        <v>21.46433815426412</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.10818308172712</v>
+        <v>17.1678619861861</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.20433053947224</v>
+        <v>9.468085700998131</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.884627980575104</v>
+        <v>2.801556005494525</v>
       </c>
       <c r="E6">
-        <v>8.334121366970791</v>
+        <v>10.94817974220948</v>
       </c>
       <c r="F6">
-        <v>21.01442406731891</v>
+        <v>19.66005853508802</v>
       </c>
       <c r="G6">
-        <v>2.018369813990599</v>
+        <v>3.576029301394154</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.88954879014751</v>
+        <v>22.73827653732438</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>32.74487845153375</v>
+        <v>21.41052728750918</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.06066910371831</v>
+        <v>17.1620277820377</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.52123725054501</v>
+        <v>9.614478252772937</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.909650967340699</v>
+        <v>2.799889183586393</v>
       </c>
       <c r="E7">
-        <v>8.388933979456722</v>
+        <v>10.92199546646563</v>
       </c>
       <c r="F7">
-        <v>21.49143243507302</v>
+        <v>19.74949145124859</v>
       </c>
       <c r="G7">
-        <v>2.015884609920145</v>
+        <v>3.57508398538606</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.49112575829446</v>
+        <v>22.97153853598644</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>33.52671748135827</v>
+        <v>21.78106855816605</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.38977061707965</v>
+        <v>17.20318042638613</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.84333261928727</v>
+        <v>10.23260954278775</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.017138670220212</v>
+        <v>2.793216426515251</v>
       </c>
       <c r="E8">
-        <v>8.932010280288246</v>
+        <v>10.82528780094209</v>
       </c>
       <c r="F8">
-        <v>23.68399698283412</v>
+        <v>20.1599904165332</v>
       </c>
       <c r="G8">
-        <v>2.005200540138026</v>
+        <v>3.571125478839591</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.0471483465634</v>
+        <v>23.98590258248302</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>36.7840426681395</v>
+        <v>23.34074166599844</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.01492279452619</v>
+        <v>17.40078027068309</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.16533907107072</v>
+        <v>11.33779386101084</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.217446988678826</v>
+        <v>2.782565488521791</v>
       </c>
       <c r="E9">
-        <v>10.57853318050341</v>
+        <v>10.70470910152742</v>
       </c>
       <c r="F9">
-        <v>27.88804037397721</v>
+        <v>21.01392383354163</v>
       </c>
       <c r="G9">
-        <v>1.985137181021321</v>
+        <v>3.564122328779255</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>37.68634883748161</v>
+        <v>25.89927787350263</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>42.4886813917482</v>
+        <v>26.11226152305616</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.30499349874312</v>
+        <v>17.84301050933569</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.71077210394832</v>
+        <v>12.07992748932232</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.358727217076111</v>
+        <v>2.776207837783647</v>
       </c>
       <c r="E10">
-        <v>11.76352199434679</v>
+        <v>10.6592902474916</v>
       </c>
       <c r="F10">
-        <v>30.78650097893367</v>
+        <v>21.66372716849058</v>
       </c>
       <c r="G10">
-        <v>1.970801616884796</v>
+        <v>3.559434449724971</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>40.85942979885554</v>
+        <v>27.2418217314535</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>46.27486799527581</v>
+        <v>27.96315177935889</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.57185035393645</v>
+        <v>18.19841365965101</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.38010514407623</v>
+        <v>12.40165608269878</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.42193122404155</v>
+        <v>2.773630884747887</v>
       </c>
       <c r="E11">
-        <v>12.29885827744792</v>
+        <v>10.6481834152161</v>
       </c>
       <c r="F11">
-        <v>32.06735105614334</v>
+        <v>21.96262686407535</v>
       </c>
       <c r="G11">
-        <v>1.964333394170514</v>
+        <v>3.557399908958468</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42.2518034870237</v>
+        <v>27.83582396146429</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>47.91227581917884</v>
+        <v>28.7633751860998</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.57383674564396</v>
+        <v>18.36603636500406</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.62882347091584</v>
+        <v>12.52115746413475</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.445736568081188</v>
+        <v>2.772700112408875</v>
       </c>
       <c r="E12">
-        <v>12.50125770812928</v>
+        <v>10.6453626585197</v>
       </c>
       <c r="F12">
-        <v>32.54732841294351</v>
+        <v>22.07615768547625</v>
       </c>
       <c r="G12">
-        <v>1.961888412248662</v>
+        <v>3.556643480708358</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>42.7717977921008</v>
+        <v>28.05813562461224</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>48.52037540033254</v>
+        <v>29.06029804810245</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.94939426282763</v>
+        <v>18.43030538893189</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.57546678174701</v>
+        <v>12.49552501247449</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.440614923230283</v>
+        <v>2.772898570689518</v>
       </c>
       <c r="E13">
-        <v>12.45767752881919</v>
+        <v>10.64590840330407</v>
       </c>
       <c r="F13">
-        <v>32.44417494095017</v>
+        <v>22.05169353655843</v>
       </c>
       <c r="G13">
-        <v>1.962414843337719</v>
+        <v>3.556805769381387</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>42.66012903188569</v>
+        <v>28.01037675291932</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>48.38993728960333</v>
+        <v>28.99662326341378</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.86867774526562</v>
+        <v>18.41642958862549</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.40066180331433</v>
+        <v>12.41153447838104</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.423892118837939</v>
+        <v>2.773553407857927</v>
       </c>
       <c r="E14">
-        <v>12.31551477056426</v>
+        <v>10.6479235344328</v>
       </c>
       <c r="F14">
-        <v>32.10693803334789</v>
+        <v>21.97196095530753</v>
       </c>
       <c r="G14">
-        <v>1.964132175965677</v>
+        <v>3.557337396885897</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>42.29472871367837</v>
+        <v>27.85416742975812</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>47.962542441134</v>
+        <v>28.7879260483583</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.60480965874206</v>
+        <v>18.37130826196824</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.29297412848823</v>
+        <v>12.35978311133749</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.413633002340505</v>
+        <v>2.773960375622003</v>
       </c>
       <c r="E15">
-        <v>12.22840166736542</v>
+        <v>10.64933853669573</v>
       </c>
       <c r="F15">
-        <v>31.89972456877897</v>
+        <v>21.92316342440156</v>
       </c>
       <c r="G15">
-        <v>1.965184561017096</v>
+        <v>3.557664855876228</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>42.06996741194567</v>
+        <v>27.75813691463068</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>47.69920268860908</v>
+        <v>28.65929539749902</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.44268901415035</v>
+        <v>18.34377169088891</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.66636008331411</v>
+        <v>12.05857808833512</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.354577206482536</v>
+        <v>2.77638256765523</v>
       </c>
       <c r="E16">
-        <v>11.72847847935397</v>
+        <v>10.66020938704003</v>
       </c>
       <c r="F16">
-        <v>30.70206607414261</v>
+        <v>21.64424854927297</v>
       </c>
       <c r="G16">
-        <v>1.97122513058905</v>
+        <v>3.559569376554411</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>40.76741227790077</v>
+        <v>27.20264641328851</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>46.16617210831058</v>
+        <v>27.91000603587178</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.50580727288808</v>
+        <v>18.18757360522778</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.27339233934788</v>
+        <v>11.8696964475825</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.318091073800345</v>
+        <v>2.777949042287577</v>
       </c>
       <c r="E17">
-        <v>11.420970918297</v>
+        <v>10.66933426618506</v>
       </c>
       <c r="F17">
-        <v>29.95793213687922</v>
+        <v>21.47389479034323</v>
       </c>
       <c r="G17">
-        <v>1.974942236982194</v>
+        <v>3.560762778341883</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>39.95528978469983</v>
+        <v>26.85742292912881</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>45.20412941779218</v>
+        <v>27.43956864583718</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.9237965121739</v>
+        <v>18.09323148998904</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.04418977620356</v>
+        <v>11.75956504802281</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.297003132322613</v>
+        <v>2.778879717801801</v>
       </c>
       <c r="E18">
-        <v>11.24373370172746</v>
+        <v>10.67548145630042</v>
       </c>
       <c r="F18">
-        <v>29.52635436890175</v>
+        <v>21.37623016259614</v>
       </c>
       <c r="G18">
-        <v>1.977085431556274</v>
+        <v>3.561458420609285</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>39.48336206369945</v>
+        <v>26.65729642425046</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>44.64277478878947</v>
+        <v>27.1650597359735</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.58626680770637</v>
+        <v>18.03953206544488</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.96603698730681</v>
+        <v>11.72202185998843</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.289844939747945</v>
+        <v>2.779199934174632</v>
       </c>
       <c r="E19">
-        <v>11.18365571135019</v>
+        <v>10.67771677263171</v>
       </c>
       <c r="F19">
-        <v>29.37960601973232</v>
+        <v>21.34322130765839</v>
       </c>
       <c r="G19">
-        <v>1.977812068359623</v>
+        <v>3.561695540800839</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>39.3227469145106</v>
+        <v>26.58927564629714</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>44.45132591132496</v>
+        <v>27.07144487747818</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.47149960639424</v>
+        <v>18.0214490132226</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.31555262490821</v>
+        <v>11.88995797877252</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.321985492582889</v>
+        <v>2.777779218488864</v>
       </c>
       <c r="E20">
-        <v>11.45374225859748</v>
+        <v>10.66826979535619</v>
       </c>
       <c r="F20">
-        <v>30.03751366811261</v>
+        <v>21.49199724807124</v>
       </c>
       <c r="G20">
-        <v>1.974546027356694</v>
+        <v>3.560634784118261</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>40.04223972334059</v>
+        <v>26.89433599629282</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>45.30736800948988</v>
+        <v>27.4900546015044</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.98603726255838</v>
+        <v>18.10321647127925</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.45213414553728</v>
+        <v>12.4362681150963</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.428807275793463</v>
+        <v>2.773359845310675</v>
       </c>
       <c r="E21">
-        <v>12.3572780941822</v>
+        <v>10.64729397251965</v>
       </c>
       <c r="F21">
-        <v>32.20612659843185</v>
+        <v>21.9953720357814</v>
       </c>
       <c r="G21">
-        <v>1.963627662311667</v>
+        <v>3.557180865490551</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>42.40225195048763</v>
+        <v>27.90012272983645</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>48.08840077101119</v>
+        <v>28.84939184420978</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.68241637050556</v>
+        <v>18.38454043937713</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.16736092377578</v>
+        <v>12.77971456750474</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.497887807513824</v>
+        <v>2.770734080805183</v>
       </c>
       <c r="E22">
-        <v>12.9460677465284</v>
+        <v>10.64166210834443</v>
       </c>
       <c r="F22">
-        <v>33.59420451180055</v>
+        <v>22.32630361337703</v>
       </c>
       <c r="G22">
-        <v>1.956515686220347</v>
+        <v>3.555005141686459</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>43.90831788067098</v>
+        <v>28.54208322468849</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>49.83644976874893</v>
+        <v>29.70218391261389</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.76871085253801</v>
+        <v>18.57300010463693</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.78811979454096</v>
+        <v>12.5976686449672</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.461075543360402</v>
+        <v>2.772111560845787</v>
       </c>
       <c r="E23">
-        <v>12.63188937887115</v>
+        <v>10.64392587995841</v>
       </c>
       <c r="F23">
-        <v>32.85589910142691</v>
+        <v>22.1495432913122</v>
       </c>
       <c r="G23">
-        <v>1.960310481359865</v>
+        <v>3.556158926601863</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>43.10555861940497</v>
+        <v>28.20092986520537</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>48.90974884445936</v>
+        <v>29.25031918028466</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.19086235132392</v>
+        <v>18.47201557926857</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.29650218435363</v>
+        <v>11.88080253614841</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.320225175155725</v>
+        <v>2.777855902060461</v>
       </c>
       <c r="E24">
-        <v>11.43892774341323</v>
+        <v>10.66874823622954</v>
       </c>
       <c r="F24">
-        <v>30.00154661254768</v>
+        <v>21.4838122633777</v>
       </c>
       <c r="G24">
-        <v>1.974725134237636</v>
+        <v>3.560692620584364</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>40.00294532128849</v>
+        <v>26.87765273024862</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>45.2607196006329</v>
+        <v>27.46724250238895</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.95790735103961</v>
+        <v>18.09870057727425</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.5657224139526</v>
+        <v>11.05079525470416</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.164345512323363</v>
+        <v>2.785187957680931</v>
       </c>
       <c r="E25">
-        <v>10.13778464105746</v>
+        <v>10.72981661554602</v>
       </c>
       <c r="F25">
-        <v>26.78516339491917</v>
+        <v>20.77843494088766</v>
       </c>
       <c r="G25">
-        <v>1.990483021618313</v>
+        <v>3.565936146117284</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.4723956027462</v>
+        <v>25.3916401407595</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41.01745497197472</v>
+        <v>25.39442234831322</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.44235790437489</v>
+        <v>17.71779782767767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_102/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.39305831775856</v>
+        <v>15.18309611915094</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.79157380833403</v>
+        <v>2.045545216872295</v>
       </c>
       <c r="E2">
-        <v>10.8037143894589</v>
+        <v>9.162620296662928</v>
       </c>
       <c r="F2">
-        <v>20.27479986733831</v>
+        <v>24.28786908229855</v>
       </c>
       <c r="G2">
-        <v>3.570104529791232</v>
+        <v>2.002370383971753</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.25631413728395</v>
+        <v>33.71493728160655</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.74438286295263</v>
+        <v>37.62002442547988</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.45812196154642</v>
+        <v>18.48792607919853</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.919740286067597</v>
+        <v>14.17706119378603</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.796522906301453</v>
+        <v>1.962355653560463</v>
       </c>
       <c r="E3">
-        <v>10.87149116235124</v>
+        <v>8.522244024175059</v>
       </c>
       <c r="F3">
-        <v>19.94573952827516</v>
+        <v>22.51119226885083</v>
       </c>
       <c r="G3">
-        <v>3.573123286525179</v>
+        <v>2.010649326097488</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.46679190532137</v>
+        <v>31.75016207141394</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>22.55226389130305</v>
+        <v>35.14338515565051</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.29604510821176</v>
+        <v>17.09560345338297</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.616176361483015</v>
+        <v>13.52490352553762</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.799870054114073</v>
+        <v>1.909942172543012</v>
       </c>
       <c r="E4">
-        <v>10.92169931525633</v>
+        <v>8.389604652691727</v>
       </c>
       <c r="F4">
-        <v>19.75054696237834</v>
+        <v>21.49698589434072</v>
       </c>
       <c r="G4">
-        <v>3.575073040860725</v>
+        <v>2.015855690176305</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.97426093668741</v>
+        <v>30.49811225082749</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>21.78536397901359</v>
+        <v>33.53576008519246</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.20367083179469</v>
+        <v>16.39361184041417</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.489333585493803</v>
+        <v>13.25043339566227</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.801311881364192</v>
+        <v>1.888249948021435</v>
       </c>
       <c r="E5">
-        <v>10.94429861525945</v>
+        <v>8.34170755969717</v>
       </c>
       <c r="F5">
-        <v>19.67284609762919</v>
+        <v>21.08344308386526</v>
       </c>
       <c r="G5">
-        <v>3.575891866643749</v>
+        <v>2.018010056478685</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.77195476996678</v>
+        <v>29.97677494877518</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>21.46433815426412</v>
+        <v>32.85864469869745</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.1678619861861</v>
+        <v>16.10818308172712</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.468085700998131</v>
+        <v>13.20433053947225</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.801556005494525</v>
+        <v>1.884627980575085</v>
       </c>
       <c r="E6">
-        <v>10.94817974220948</v>
+        <v>8.334121366970754</v>
       </c>
       <c r="F6">
-        <v>19.66005853508802</v>
+        <v>21.01442406731889</v>
       </c>
       <c r="G6">
-        <v>3.576029301394154</v>
+        <v>2.018369813990867</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.73827653732438</v>
+        <v>29.88954879014743</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>21.41052728750918</v>
+        <v>32.74487845153374</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.1620277820377</v>
+        <v>16.0606691037183</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.614478252772937</v>
+        <v>13.52123725054505</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.799889183586393</v>
+        <v>1.909650967340644</v>
       </c>
       <c r="E7">
-        <v>10.92199546646563</v>
+        <v>8.388933979456754</v>
       </c>
       <c r="F7">
-        <v>19.74949145124859</v>
+        <v>21.49143243507301</v>
       </c>
       <c r="G7">
-        <v>3.57508398538606</v>
+        <v>2.015884609920144</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.97153853598644</v>
+        <v>30.49112575829449</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>21.78106855816605</v>
+        <v>33.52671748135829</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.20318042638613</v>
+        <v>16.38977061707966</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.23260954278775</v>
+        <v>14.84333261928727</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.793216426515251</v>
+        <v>2.017138670220062</v>
       </c>
       <c r="E8">
-        <v>10.82528780094209</v>
+        <v>8.932010280288253</v>
       </c>
       <c r="F8">
-        <v>20.1599904165332</v>
+        <v>23.68399698283421</v>
       </c>
       <c r="G8">
-        <v>3.571125478839591</v>
+        <v>2.005200540137893</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.98590258248302</v>
+        <v>33.04714834656339</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.34074166599844</v>
+        <v>36.78404266813951</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.40078027068309</v>
+        <v>18.01492279452625</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.33779386101084</v>
+        <v>17.16533907107067</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.782565488521791</v>
+        <v>2.217446988678888</v>
       </c>
       <c r="E9">
-        <v>10.70470910152742</v>
+        <v>10.57853318050334</v>
       </c>
       <c r="F9">
-        <v>21.01392383354163</v>
+        <v>27.88804037397723</v>
       </c>
       <c r="G9">
-        <v>3.564122328779255</v>
+        <v>1.985137181021454</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.89927787350263</v>
+        <v>37.68634883748142</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>26.11226152305616</v>
+        <v>42.48868139174809</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.84301050933569</v>
+        <v>21.30499349874314</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.07992748932232</v>
+        <v>18.71077210394829</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.776207837783647</v>
+        <v>2.358727217075953</v>
       </c>
       <c r="E10">
-        <v>10.6592902474916</v>
+        <v>11.76352199434672</v>
       </c>
       <c r="F10">
-        <v>21.66372716849058</v>
+        <v>30.78650097893382</v>
       </c>
       <c r="G10">
-        <v>3.559434449724971</v>
+        <v>1.970801616884928</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.2418217314535</v>
+        <v>40.8594297988553</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>27.96315177935889</v>
+        <v>46.27486799527572</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.19841365965101</v>
+        <v>23.57185035393655</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.40165608269878</v>
+        <v>19.38010514407617</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.773630884747887</v>
+        <v>2.421931224041459</v>
       </c>
       <c r="E11">
-        <v>10.6481834152161</v>
+        <v>12.29885827744787</v>
       </c>
       <c r="F11">
-        <v>21.96262686407535</v>
+        <v>32.06735105614341</v>
       </c>
       <c r="G11">
-        <v>3.557399908958468</v>
+        <v>1.964333394170515</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.83582396146429</v>
+        <v>42.25180348702362</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>28.7633751860998</v>
+        <v>47.91227581917884</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.36603636500406</v>
+        <v>24.57383674564399</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.52115746413475</v>
+        <v>19.62882347091587</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.772700112408875</v>
+        <v>2.445736568081199</v>
       </c>
       <c r="E12">
-        <v>10.6453626585197</v>
+        <v>12.50125770812939</v>
       </c>
       <c r="F12">
-        <v>22.07615768547625</v>
+        <v>32.54732841294359</v>
       </c>
       <c r="G12">
-        <v>3.556643480708358</v>
+        <v>1.961888412248527</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.05813562461224</v>
+        <v>42.77179779210095</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>29.06029804810245</v>
+        <v>48.52037540033263</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.43030538893189</v>
+        <v>24.94939426282771</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.49552501247449</v>
+        <v>19.57546678174696</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.772898570689518</v>
+        <v>2.440614923230227</v>
       </c>
       <c r="E13">
-        <v>10.64590840330407</v>
+        <v>12.45767752881907</v>
       </c>
       <c r="F13">
-        <v>22.05169353655843</v>
+        <v>32.44417494095019</v>
       </c>
       <c r="G13">
-        <v>3.556805769381387</v>
+        <v>1.962414843337853</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.01037675291932</v>
+        <v>42.66012903188549</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>28.99662326341378</v>
+        <v>48.38993728960323</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.41642958862549</v>
+        <v>24.86867774526565</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.41153447838104</v>
+        <v>19.40066180331433</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.773553407857927</v>
+        <v>2.423892118837848</v>
       </c>
       <c r="E14">
-        <v>10.6479235344328</v>
+        <v>12.31551477056421</v>
       </c>
       <c r="F14">
-        <v>21.97196095530753</v>
+        <v>32.10693803334792</v>
       </c>
       <c r="G14">
-        <v>3.557337396885897</v>
+        <v>1.964132175965544</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.85416742975812</v>
+        <v>42.29472871367837</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>28.7879260483583</v>
+        <v>47.962542441134</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.37130826196824</v>
+        <v>24.60480965874208</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.35978311133749</v>
+        <v>19.29297412848825</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.773960375622003</v>
+        <v>2.41363300234047</v>
       </c>
       <c r="E15">
-        <v>10.64933853669573</v>
+        <v>12.22840166736546</v>
       </c>
       <c r="F15">
-        <v>21.92316342440156</v>
+        <v>31.89972456877889</v>
       </c>
       <c r="G15">
-        <v>3.557664855876228</v>
+        <v>1.965184561016964</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.75813691463068</v>
+        <v>42.06996741194573</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>28.65929539749902</v>
+        <v>47.69920268860912</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.34377169088891</v>
+        <v>24.44268901415028</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.05857808833512</v>
+        <v>18.66636008331413</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.77638256765523</v>
+        <v>2.354577206482603</v>
       </c>
       <c r="E16">
-        <v>10.66020938704003</v>
+        <v>11.72847847935395</v>
       </c>
       <c r="F16">
-        <v>21.64424854927297</v>
+        <v>30.70206607414266</v>
       </c>
       <c r="G16">
-        <v>3.559569376554411</v>
+        <v>1.971225130589189</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.20264641328851</v>
+        <v>40.76741227790072</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>27.91000603587178</v>
+        <v>46.16617210831056</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.18757360522778</v>
+        <v>23.50580727288813</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.8696964475825</v>
+        <v>18.27339233934789</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.777949042287577</v>
+        <v>2.31809107380034</v>
       </c>
       <c r="E17">
-        <v>10.66933426618506</v>
+        <v>11.42097091829699</v>
       </c>
       <c r="F17">
-        <v>21.47389479034323</v>
+        <v>29.9579321368792</v>
       </c>
       <c r="G17">
-        <v>3.560762778341883</v>
+        <v>1.974942236982326</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.85742292912881</v>
+        <v>39.95528978469996</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>27.43956864583718</v>
+        <v>45.20412941779222</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.09323148998904</v>
+        <v>22.92379651217387</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.75956504802281</v>
+        <v>18.04418977620356</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.778879717801801</v>
+        <v>2.297003132322665</v>
       </c>
       <c r="E18">
-        <v>10.67548145630042</v>
+        <v>11.24373370172769</v>
       </c>
       <c r="F18">
-        <v>21.37623016259614</v>
+        <v>29.52635436890159</v>
       </c>
       <c r="G18">
-        <v>3.561458420609285</v>
+        <v>1.977085431556273</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.65729642425046</v>
+        <v>39.48336206369965</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>27.1650597359735</v>
+        <v>44.64277478878954</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.03953206544488</v>
+        <v>22.58626680770622</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.72202185998843</v>
+        <v>17.9660369873068</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.779199934174632</v>
+        <v>2.289844939747888</v>
       </c>
       <c r="E19">
-        <v>10.67771677263171</v>
+        <v>11.18365571135021</v>
       </c>
       <c r="F19">
-        <v>21.34322130765839</v>
+        <v>29.37960601973238</v>
       </c>
       <c r="G19">
-        <v>3.561695540800839</v>
+        <v>1.977812068359488</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.58927564629714</v>
+        <v>39.3227469145105</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>27.07144487747818</v>
+        <v>44.45132591132494</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.0214490132226</v>
+        <v>22.47149960639428</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.88995797877252</v>
+        <v>18.3155526249082</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.777779218488864</v>
+        <v>2.321985492582894</v>
       </c>
       <c r="E20">
-        <v>10.66826979535619</v>
+        <v>11.45374225859746</v>
       </c>
       <c r="F20">
-        <v>21.49199724807124</v>
+        <v>30.03751366811268</v>
       </c>
       <c r="G20">
-        <v>3.560634784118261</v>
+        <v>1.974546027356695</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.89433599629282</v>
+        <v>40.04223972334068</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>27.4900546015044</v>
+        <v>45.3073680094899</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.10321647127925</v>
+        <v>22.98603726255843</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.4362681150963</v>
+        <v>19.45213414553735</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.773359845310675</v>
+        <v>2.428807275793452</v>
       </c>
       <c r="E21">
-        <v>10.64729397251965</v>
+        <v>12.35727809418222</v>
       </c>
       <c r="F21">
-        <v>21.9953720357814</v>
+        <v>32.20612659843187</v>
       </c>
       <c r="G21">
-        <v>3.557180865490551</v>
+        <v>1.963627662311669</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.90012272983645</v>
+        <v>42.40225195048769</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>28.84939184420978</v>
+        <v>48.08840077101124</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.38454043937713</v>
+        <v>24.68241637050558</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.77971456750474</v>
+        <v>20.16736092377579</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.770734080805183</v>
+        <v>2.497887807513965</v>
       </c>
       <c r="E22">
-        <v>10.64166210834443</v>
+        <v>12.94606774652834</v>
       </c>
       <c r="F22">
-        <v>22.32630361337703</v>
+        <v>33.59420451180068</v>
       </c>
       <c r="G22">
-        <v>3.555005141686459</v>
+        <v>1.956515686220216</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.54208322468849</v>
+        <v>43.90831788067096</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>29.70218391261389</v>
+        <v>49.83644976874893</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.57300010463693</v>
+        <v>25.76871085253814</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.5976686449672</v>
+        <v>19.78811979454095</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.772111560845787</v>
+        <v>2.461075543360352</v>
       </c>
       <c r="E23">
-        <v>10.64392587995841</v>
+        <v>12.63188937887112</v>
       </c>
       <c r="F23">
-        <v>22.1495432913122</v>
+        <v>32.85589910142696</v>
       </c>
       <c r="G23">
-        <v>3.556158926601863</v>
+        <v>1.960310481359864</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.20092986520537</v>
+        <v>43.10555861940492</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>29.25031918028466</v>
+        <v>48.90974884445937</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.47201557926857</v>
+        <v>25.19086235132397</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.88080253614841</v>
+        <v>18.29650218435361</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.777855902060461</v>
+        <v>2.320225175155616</v>
       </c>
       <c r="E24">
-        <v>10.66874823622954</v>
+        <v>11.43892774341316</v>
       </c>
       <c r="F24">
-        <v>21.4838122633777</v>
+        <v>30.00154661254769</v>
       </c>
       <c r="G24">
-        <v>3.560692620584364</v>
+        <v>1.974725134237905</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.87765273024862</v>
+        <v>40.00294532128859</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>27.46724250238895</v>
+        <v>45.26071960063292</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.09870057727425</v>
+        <v>22.95790735103963</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.05079525470416</v>
+        <v>16.56572241395263</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.785187957680931</v>
+        <v>2.164345512323368</v>
       </c>
       <c r="E25">
-        <v>10.72981661554602</v>
+        <v>10.13778464105753</v>
       </c>
       <c r="F25">
-        <v>20.77843494088766</v>
+        <v>26.78516339491912</v>
       </c>
       <c r="G25">
-        <v>3.565936146117284</v>
+        <v>1.990483021618447</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.3916401407595</v>
+        <v>36.47239560274625</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>25.39442234831322</v>
+        <v>41.01745497197476</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.71779782767767</v>
+        <v>20.44235790437486</v>
       </c>
     </row>
   </sheetData>
